--- a/src/static/ippan_city2.xlsx
+++ b/src/static/ippan_city2.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet99" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="一般資産調査票" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
@@ -842,12 +842,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -994,12 +994,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1146,12 +1146,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1298,12 +1298,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1313,12 +1313,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1450,12 +1450,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>1丁目</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1465,12 +1465,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1602,12 +1602,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1754,12 +1754,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1769,12 +1769,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1906,12 +1906,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2058,12 +2058,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2210,12 +2210,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>2丁目</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2225,12 +2225,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -2362,27 +2362,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2丁目</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1丁目</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2514,12 +2514,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2666,12 +2666,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2818,12 +2818,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2833,12 +2833,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2970,12 +2970,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3122,12 +3122,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3274,12 +3274,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1丁目</t>
+          <t>3丁目</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3426,12 +3426,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -3578,12 +3578,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3730,12 +3730,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3882,12 +3882,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
@@ -4034,12 +4034,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4186,12 +4186,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2丁目</t>
+          <t>4丁目</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">

--- a/src/static/ippan_city2.xlsx
+++ b/src/static/ippan_city2.xlsx
@@ -4069,7 +4069,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>011011</t>
+          <t>011029</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4146,6 +4146,9 @@
       <c r="Z24" t="n">
         <v>0</v>
       </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
@@ -4180,6 +4183,54 @@
         <v>0</v>
       </c>
       <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
         <v>0</v>
       </c>
     </row>
